--- a/docs/PDX_rp2040_PinOut.xlsx
+++ b/docs/PDX_rp2040_PinOut.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Personal\tinyADX\PDX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-rp2040/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA3BE02-AE2A-6148-95B2-A1A4CB7306FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="345" windowWidth="21600" windowHeight="8910"/>
+    <workbookView xWindow="7800" yWindow="760" windowWidth="21600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rp2040 PinOut" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>Pin</t>
   </si>
@@ -348,12 +360,18 @@
   </si>
   <si>
     <t>FSK In [Digital or Analog]</t>
+  </si>
+  <si>
+    <t>ddsPIO CLK1 (RX)</t>
+  </si>
+  <si>
+    <t>ddsPIO CLK0 (TX)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,9 +795,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,29 +1076,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1118,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <f>1</f>
         <v>1</v>
@@ -1117,10 +1134,10 @@
         <v>93</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <f>B4+1</f>
         <v>2</v>
@@ -1136,10 +1153,10 @@
         <v>93</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <f t="shared" ref="B6:B43" si="0">B5+1</f>
         <v>3</v>
@@ -1152,7 +1169,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="54"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1169,11 +1186,11 @@
       <c r="F7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1190,11 +1207,11 @@
       <c r="F8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1211,11 +1228,11 @@
       <c r="F9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1232,11 +1249,11 @@
       <c r="F10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1249,7 +1266,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="54"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1266,11 +1283,11 @@
       <c r="F12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="55" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1287,11 +1304,11 @@
       <c r="F13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1308,11 +1325,11 @@
       <c r="F14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1327,11 +1344,11 @@
       <c r="F15" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1344,7 +1361,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="54"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1359,11 +1376,11 @@
       <c r="F17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="57" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1378,11 +1395,11 @@
       <c r="F18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1399,11 +1416,11 @@
       <c r="F19" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1420,11 +1437,11 @@
       <c r="F20" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1437,7 +1454,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="54"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1452,11 +1469,11 @@
       <c r="F22" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1471,11 +1488,11 @@
       <c r="F23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="55" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1490,11 +1507,11 @@
       <c r="F24" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1509,11 +1526,11 @@
       <c r="F25" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1526,7 +1543,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="54"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="44">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1541,11 +1558,11 @@
       <c r="F27" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="57" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1562,11 +1579,11 @@
       <c r="F28" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1583,11 +1600,11 @@
       <c r="F29" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1604,11 +1621,11 @@
       <c r="F30" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="58" t="s">
+      <c r="G30" s="57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1621,7 +1638,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="54"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1636,11 +1653,11 @@
       <c r="F32" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="57" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1651,11 +1668,11 @@
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
       <c r="F33" s="31"/>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="44">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1670,11 +1687,11 @@
       <c r="F34" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="48">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1689,11 +1706,11 @@
       <c r="F35" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="36">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1706,7 +1723,7 @@
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1721,9 +1738,9 @@
       <c r="F37" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="59"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="58"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="28">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1736,7 +1753,7 @@
       <c r="F38" s="31"/>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="28">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1749,7 +1766,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="28">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1762,7 +1779,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1775,7 +1792,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="28">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1788,7 +1805,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="40">
         <f t="shared" si="0"/>
         <v>40</v>
